--- a/field_data/Stage_1/Aufnahmebögen_digitalisiert.xlsx
+++ b/field_data/Stage_1/Aufnahmebögen_digitalisiert.xlsx
@@ -696,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +715,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -728,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -765,6 +771,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5845,7 +5856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G295" sqref="G295"/>
+      <selection pane="bottomLeft" activeCell="A296" sqref="A296:XFD306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13367,262 +13378,262 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="1:9" s="7" customFormat="1">
-      <c r="A296" s="2" t="s">
+    <row r="296" spans="1:9" s="26" customFormat="1">
+      <c r="A296" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="2"/>
-      <c r="E296" s="22">
+      <c r="D296" s="24"/>
+      <c r="E296" s="25">
         <v>3</v>
       </c>
-      <c r="F296" s="2" t="s">
+      <c r="F296" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G296" s="2" t="s">
+      <c r="G296" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-    </row>
-    <row r="297" spans="1:9" s="7" customFormat="1">
-      <c r="A297" s="2" t="s">
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
+    </row>
+    <row r="297" spans="1:9" s="26" customFormat="1">
+      <c r="A297" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D297" s="2"/>
-      <c r="E297" s="22" t="s">
+      <c r="D297" s="24"/>
+      <c r="E297" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F297" s="2" t="s">
+      <c r="F297" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G297" s="2" t="s">
+      <c r="G297" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-    </row>
-    <row r="298" spans="1:9" s="7" customFormat="1">
-      <c r="A298" s="2" t="s">
+      <c r="H297" s="24"/>
+      <c r="I297" s="24"/>
+    </row>
+    <row r="298" spans="1:9" s="26" customFormat="1">
+      <c r="A298" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D298" s="2"/>
-      <c r="E298" s="22" t="s">
+      <c r="D298" s="24"/>
+      <c r="E298" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F298" s="2" t="s">
+      <c r="F298" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G298" s="2" t="s">
+      <c r="G298" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-    </row>
-    <row r="299" spans="1:9" s="7" customFormat="1">
-      <c r="A299" s="2" t="s">
+      <c r="H298" s="24"/>
+      <c r="I298" s="24"/>
+    </row>
+    <row r="299" spans="1:9" s="26" customFormat="1">
+      <c r="A299" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D299" s="2"/>
-      <c r="E299" s="22">
-        <v>1</v>
-      </c>
-      <c r="F299" s="2" t="s">
+      <c r="D299" s="24"/>
+      <c r="E299" s="25">
+        <v>1</v>
+      </c>
+      <c r="F299" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G299" s="2" t="s">
+      <c r="G299" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-    </row>
-    <row r="300" spans="1:9" s="7" customFormat="1">
-      <c r="A300" s="2" t="s">
+      <c r="H299" s="24"/>
+      <c r="I299" s="24"/>
+    </row>
+    <row r="300" spans="1:9" s="26" customFormat="1">
+      <c r="A300" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D300" s="2">
-        <v>1</v>
-      </c>
-      <c r="E300" s="22" t="s">
+      <c r="D300" s="24">
+        <v>1</v>
+      </c>
+      <c r="E300" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-    </row>
-    <row r="301" spans="1:9" s="7" customFormat="1">
-      <c r="A301" s="2" t="s">
+      <c r="F300" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G300" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H300" s="24"/>
+      <c r="I300" s="24"/>
+    </row>
+    <row r="301" spans="1:9" s="26" customFormat="1">
+      <c r="A301" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D301" s="2"/>
-      <c r="E301" s="22">
+      <c r="D301" s="24"/>
+      <c r="E301" s="25">
         <v>4</v>
       </c>
-      <c r="F301" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="1:9" s="7" customFormat="1">
-      <c r="A302" s="2" t="s">
+      <c r="F301" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G301" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H301" s="24"/>
+      <c r="I301" s="24"/>
+    </row>
+    <row r="302" spans="1:9" s="26" customFormat="1">
+      <c r="A302" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="22" t="s">
+      <c r="D302" s="24"/>
+      <c r="E302" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F302" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-    </row>
-    <row r="303" spans="1:9" s="7" customFormat="1">
-      <c r="A303" s="2" t="s">
+      <c r="F302" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G302" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H302" s="24"/>
+      <c r="I302" s="24"/>
+    </row>
+    <row r="303" spans="1:9" s="26" customFormat="1">
+      <c r="A303" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D303" s="2">
-        <v>1</v>
-      </c>
-      <c r="E303" s="22" t="s">
+      <c r="D303" s="24">
+        <v>1</v>
+      </c>
+      <c r="E303" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F303" s="2" t="s">
+      <c r="F303" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G303" s="2" t="s">
+      <c r="G303" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="1:9" s="7" customFormat="1">
-      <c r="A304" s="2" t="s">
+      <c r="H303" s="24"/>
+      <c r="I303" s="24"/>
+    </row>
+    <row r="304" spans="1:9" s="26" customFormat="1">
+      <c r="A304" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D304" s="2"/>
-      <c r="E304" s="22">
+      <c r="D304" s="24"/>
+      <c r="E304" s="25">
         <v>2</v>
       </c>
-      <c r="F304" s="2" t="s">
+      <c r="F304" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G304" s="2" t="s">
+      <c r="G304" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H304" s="2"/>
-      <c r="I304" s="2"/>
-    </row>
-    <row r="305" spans="1:9" s="7" customFormat="1">
-      <c r="A305" s="2" t="s">
+      <c r="H304" s="24"/>
+      <c r="I304" s="24"/>
+    </row>
+    <row r="305" spans="1:9" s="26" customFormat="1">
+      <c r="A305" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D305" s="2"/>
-      <c r="E305" s="22">
-        <v>1</v>
-      </c>
-      <c r="F305" s="2" t="s">
+      <c r="D305" s="24"/>
+      <c r="E305" s="25">
+        <v>1</v>
+      </c>
+      <c r="F305" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G305" s="2" t="s">
+      <c r="G305" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-    </row>
-    <row r="306" spans="1:9" s="7" customFormat="1">
-      <c r="A306" s="2" t="s">
+      <c r="H305" s="24"/>
+      <c r="I305" s="24"/>
+    </row>
+    <row r="306" spans="1:9" s="26" customFormat="1">
+      <c r="A306" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D306" s="2"/>
-      <c r="E306" s="22">
-        <v>1</v>
-      </c>
-      <c r="F306" s="2" t="s">
+      <c r="D306" s="24"/>
+      <c r="E306" s="25">
+        <v>1</v>
+      </c>
+      <c r="F306" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G306" s="2" t="s">
+      <c r="G306" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
+      <c r="H306" s="24"/>
+      <c r="I306" s="24"/>
     </row>
     <row r="307" spans="1:9" s="6" customFormat="1">
       <c r="A307" t="s">
@@ -24753,7 +24764,7 @@
         <v>80</v>
       </c>
       <c r="D258" s="14" t="str">
-        <f t="shared" ref="D258:D321" si="4">A258&amp;B258&amp;C258</f>
+        <f t="shared" ref="D258:D292" si="4">A258&amp;B258&amp;C258</f>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E258" s="14" t="s">

--- a/field_data/Stage_1/Aufnahmebögen_digitalisiert.xlsx
+++ b/field_data/Stage_1/Aufnahmebögen_digitalisiert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="13" r:id="rId1"/>
@@ -5854,7 +5854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JJ319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A296" sqref="A296:XFD306"/>
     </sheetView>
@@ -26068,8 +26068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3">
